--- a/pyNews/source/termos.xlsx
+++ b/pyNews/source/termos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UnB\Sistemas de Informação\SI\SI\pyNews\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UnB\Sistemas de Informação\SI\#Projeto\NewsRanking\pyNews\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC67A8C-F420-41F5-91D5-AB27A8D868D9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA03CC-A1E8-4A1B-B095-8DFA8E6FF059}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Nome</t>
   </si>
@@ -49,17 +49,101 @@
     <t>influenza</t>
   </si>
   <si>
+    <t>toxoplasmose</t>
+  </si>
+  <si>
+    <t>Raiva</t>
+  </si>
+  <si>
+    <t>botulismo</t>
+  </si>
+  <si>
+    <t>colera</t>
+  </si>
+  <si>
+    <t>coqueluche</t>
+  </si>
+  <si>
+    <t>difteria</t>
+  </si>
+  <si>
+    <t>doenca de chagas</t>
+  </si>
+  <si>
+    <t>esquistossomose</t>
+  </si>
+  <si>
+    <t>febre do nilo</t>
+  </si>
+  <si>
+    <t>febre maculosa</t>
+  </si>
+  <si>
+    <t>febre tifoide</t>
+  </si>
+  <si>
+    <t>hanseniase</t>
+  </si>
+  <si>
+    <t>hantavirose</t>
+  </si>
+  <si>
     <t>aids</t>
   </si>
   <si>
-    <t>cancer</t>
+    <t>leishmaniose</t>
+  </si>
+  <si>
+    <t>leptospirose</t>
+  </si>
+  <si>
+    <t>raiva</t>
+  </si>
+  <si>
+    <t>rubeola</t>
+  </si>
+  <si>
+    <t>sifilis</t>
+  </si>
+  <si>
+    <t>tetano</t>
+  </si>
+  <si>
+    <t>tuberculose</t>
+  </si>
+  <si>
+    <t>enchentes</t>
+  </si>
+  <si>
+    <t>surto</t>
+  </si>
+  <si>
+    <t>epidemia</t>
+  </si>
+  <si>
+    <t>imundacao</t>
+  </si>
+  <si>
+    <t>poliomielite</t>
+  </si>
+  <si>
+    <t>catastrofe</t>
+  </si>
+  <si>
+    <t>depressao</t>
+  </si>
+  <si>
+    <t>doenca mental</t>
+  </si>
+  <si>
+    <t>doenca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -68,13 +152,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,10 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,44 +205,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -216,9 +292,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -274,142 +350,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -418,74 +518,215 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pyNews/source/termos.xlsx
+++ b/pyNews/source/termos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\UnB\Sistemas de Informação\SI\#Projeto\NewsRanking\pyNews\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA03CC-A1E8-4A1B-B095-8DFA8E6FF059}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F970A-FFAD-4F5F-A2CE-E956B776DB00}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Nome</t>
   </si>
@@ -52,9 +52,6 @@
     <t>toxoplasmose</t>
   </si>
   <si>
-    <t>Raiva</t>
-  </si>
-  <si>
     <t>botulismo</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>epidemia</t>
   </si>
   <si>
-    <t>imundacao</t>
-  </si>
-  <si>
     <t>poliomielite</t>
   </si>
   <si>
@@ -137,6 +131,9 @@
   </si>
   <si>
     <t>doenca</t>
+  </si>
+  <si>
+    <t>inundacao</t>
   </si>
 </sst>
 </file>
@@ -520,8 +517,8 @@
   </sheetPr>
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,102 +575,102 @@
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -683,47 +680,47 @@
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
